--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1639.25785446483</v>
+        <v>1722.573728101477</v>
       </c>
       <c r="AB2" t="n">
-        <v>2242.904915431304</v>
+        <v>2356.901369377896</v>
       </c>
       <c r="AC2" t="n">
-        <v>2028.84521823936</v>
+        <v>2131.962010616317</v>
       </c>
       <c r="AD2" t="n">
-        <v>1639257.85446483</v>
+        <v>1722573.728101477</v>
       </c>
       <c r="AE2" t="n">
-        <v>2242904.915431304</v>
+        <v>2356901.369377896</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289180685865165e-06</v>
+        <v>2.179423913703203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.71666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2028845.21823936</v>
+        <v>2131962.010616317</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>559.9263685705115</v>
+        <v>601.4990540428141</v>
       </c>
       <c r="AB3" t="n">
-        <v>766.1159596861613</v>
+        <v>822.9975420068079</v>
       </c>
       <c r="AC3" t="n">
-        <v>692.9989277442162</v>
+        <v>744.4518116819821</v>
       </c>
       <c r="AD3" t="n">
-        <v>559926.3685705115</v>
+        <v>601499.0540428141</v>
       </c>
       <c r="AE3" t="n">
-        <v>766115.9596861614</v>
+        <v>822997.5420068079</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.418034385901901e-06</v>
+        <v>4.087807103047481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.379166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>692998.9277442162</v>
+        <v>744451.8116819821</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.433845253598</v>
+        <v>453.6773873758915</v>
       </c>
       <c r="AB4" t="n">
-        <v>577.9926235419305</v>
+        <v>620.7414162414506</v>
       </c>
       <c r="AC4" t="n">
-        <v>522.82981876883</v>
+        <v>561.4987266914153</v>
       </c>
       <c r="AD4" t="n">
-        <v>422433.8452535979</v>
+        <v>453677.3873758915</v>
       </c>
       <c r="AE4" t="n">
-        <v>577992.6235419305</v>
+        <v>620741.4162414506</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.844600451927672e-06</v>
+        <v>4.808938202251754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.123611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>522829.81876883</v>
+        <v>561498.7266914153</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>353.8750536076036</v>
+        <v>385.2038470759177</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.1874602114593</v>
+        <v>527.0528975636288</v>
       </c>
       <c r="AC5" t="n">
-        <v>437.9772885702453</v>
+        <v>476.7517087435428</v>
       </c>
       <c r="AD5" t="n">
-        <v>353875.0536076036</v>
+        <v>385203.8470759177</v>
       </c>
       <c r="AE5" t="n">
-        <v>484187.4602114593</v>
+        <v>527052.8975636287</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.076410807233743e-06</v>
+        <v>5.200825109445868e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.586111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>437977.2885702453</v>
+        <v>476751.7087435428</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.7594949764338</v>
+        <v>371.9176962441556</v>
       </c>
       <c r="AB6" t="n">
-        <v>466.2421742746827</v>
+        <v>508.8741998520051</v>
       </c>
       <c r="AC6" t="n">
-        <v>421.7446755369077</v>
+        <v>460.3079604275541</v>
       </c>
       <c r="AD6" t="n">
-        <v>340759.4949764338</v>
+        <v>371917.6962441556</v>
       </c>
       <c r="AE6" t="n">
-        <v>466242.1742746827</v>
+        <v>508874.1998520051</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.128199778998158e-06</v>
+        <v>5.288376935785648e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.477777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>421744.6755369077</v>
+        <v>460307.9604275541</v>
       </c>
     </row>
   </sheetData>
@@ -3073,28 +3073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>992.9190035733202</v>
+        <v>1053.37715929046</v>
       </c>
       <c r="AB2" t="n">
-        <v>1358.555585183889</v>
+        <v>1441.277101061667</v>
       </c>
       <c r="AC2" t="n">
-        <v>1228.896946878677</v>
+        <v>1303.723637381457</v>
       </c>
       <c r="AD2" t="n">
-        <v>992919.0035733202</v>
+        <v>1053377.15929046</v>
       </c>
       <c r="AE2" t="n">
-        <v>1358555.585183889</v>
+        <v>1441277.101061667</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.703231195492943e-06</v>
+        <v>2.949640468019358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.30694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1228896.946878677</v>
+        <v>1303723.637381457</v>
       </c>
     </row>
     <row r="3">
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.5595698993463</v>
+        <v>467.9218412747869</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.0058661332554</v>
+        <v>640.2313064868737</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.1737273303867</v>
+        <v>579.1285291660478</v>
       </c>
       <c r="AD3" t="n">
-        <v>427559.5698993463</v>
+        <v>467921.8412747869</v>
       </c>
       <c r="AE3" t="n">
-        <v>585005.8661332554</v>
+        <v>640231.3064868737</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.757978920577133e-06</v>
+        <v>4.776243093483411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>529173.7273303866</v>
+        <v>579128.5291660478</v>
       </c>
     </row>
     <row r="4">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.159360597657</v>
+        <v>368.4362911185259</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.0021145389434</v>
+        <v>504.1107877703641</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.1499829057717</v>
+        <v>455.999161709494</v>
       </c>
       <c r="AD4" t="n">
-        <v>328159.360597657</v>
+        <v>368436.2911185259</v>
       </c>
       <c r="AE4" t="n">
-        <v>449002.1145389435</v>
+        <v>504110.7877703641</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.140247626778057e-06</v>
+        <v>5.438252601324367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.675000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>406149.9829057716</v>
+        <v>455999.1617094941</v>
       </c>
     </row>
     <row r="5">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.1447506706592</v>
+        <v>349.5017950568113</v>
       </c>
       <c r="AB5" t="n">
-        <v>436.6679275403031</v>
+        <v>478.2037749277144</v>
       </c>
       <c r="AC5" t="n">
-        <v>394.9929534031414</v>
+        <v>432.5646778118261</v>
       </c>
       <c r="AD5" t="n">
-        <v>319144.7506706592</v>
+        <v>349501.7950568112</v>
       </c>
       <c r="AE5" t="n">
-        <v>436667.9275403031</v>
+        <v>478203.7749277144</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.186427738936558e-06</v>
+        <v>5.518226904285021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.577777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>394992.9534031413</v>
+        <v>432564.6778118261</v>
       </c>
     </row>
   </sheetData>
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.7752494439617</v>
+        <v>343.2367118948232</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.7434302580554</v>
+        <v>469.6316117495204</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.6837063878302</v>
+        <v>424.8106298562523</v>
       </c>
       <c r="AD2" t="n">
-        <v>306775.2494439617</v>
+        <v>343236.7118948232</v>
       </c>
       <c r="AE2" t="n">
-        <v>419743.4302580553</v>
+        <v>469631.6117495204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.056284349799569e-06</v>
+        <v>5.78314767079287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.652777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>379683.7063878302</v>
+        <v>424810.6298562523</v>
       </c>
     </row>
     <row r="3">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.59736267707</v>
+        <v>325.8882329273392</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.2398877487153</v>
+        <v>445.8946574653333</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.4233089881523</v>
+        <v>403.3390971739233</v>
       </c>
       <c r="AD3" t="n">
-        <v>289597.36267707</v>
+        <v>325888.2329273392</v>
       </c>
       <c r="AE3" t="n">
-        <v>396239.8877487152</v>
+        <v>445894.6574653333</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168943682546051e-06</v>
+        <v>5.996323371479432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.380555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>358423.3089881522</v>
+        <v>403339.0971739233</v>
       </c>
     </row>
   </sheetData>
@@ -4091,28 +4091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.3863551067584</v>
+        <v>518.7841681470491</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.9716071553402</v>
+        <v>709.8233860009988</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.4164221917697</v>
+        <v>642.078838284442</v>
       </c>
       <c r="AD2" t="n">
-        <v>471386.3551067584</v>
+        <v>518784.1681470491</v>
       </c>
       <c r="AE2" t="n">
-        <v>644971.6071553401</v>
+        <v>709823.3860009988</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503533690641747e-06</v>
+        <v>4.560894679970591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>583416.4221917697</v>
+        <v>642078.838284442</v>
       </c>
     </row>
     <row r="3">
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.9012274636436</v>
+        <v>327.8024097249619</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.6556489552736</v>
+        <v>448.5137186073609</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.7993905286813</v>
+        <v>405.7081987964313</v>
       </c>
       <c r="AD3" t="n">
-        <v>289901.2274636436</v>
+        <v>327802.4097249619</v>
       </c>
       <c r="AE3" t="n">
-        <v>396655.6489552737</v>
+        <v>448513.718607361</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.22414541511025e-06</v>
+        <v>5.873692743259422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.940277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>358799.3905286813</v>
+        <v>405708.1987964313</v>
       </c>
     </row>
     <row r="4">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.4457397636649</v>
+        <v>329.3469220249831</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.7689188232363</v>
+        <v>450.6269884753236</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.7109728864385</v>
+        <v>407.6197811541886</v>
       </c>
       <c r="AD4" t="n">
-        <v>291445.7397636649</v>
+        <v>329346.9220249831</v>
       </c>
       <c r="AE4" t="n">
-        <v>398768.9188232363</v>
+        <v>450626.9884753236</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.22414541511025e-06</v>
+        <v>5.873692743259422e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.940277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>360710.9728864385</v>
+        <v>407619.7811541886</v>
       </c>
     </row>
   </sheetData>
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.1316484032282</v>
+        <v>328.9742165294215</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.1297004658356</v>
+        <v>450.1170363736902</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.896269403849</v>
+        <v>407.1584981654128</v>
       </c>
       <c r="AD2" t="n">
-        <v>285131.6484032281</v>
+        <v>328974.2165294215</v>
       </c>
       <c r="AE2" t="n">
-        <v>390129.7004658356</v>
+        <v>450117.0363736902</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.046883331980563e-06</v>
+        <v>5.970909623447406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.972222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>352896.269403849</v>
+        <v>407158.4981654128</v>
       </c>
     </row>
   </sheetData>
@@ -4897,28 +4897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1125.193917876058</v>
+        <v>1186.248246324706</v>
       </c>
       <c r="AB2" t="n">
-        <v>1539.539958490261</v>
+        <v>1623.077184200572</v>
       </c>
       <c r="AC2" t="n">
-        <v>1392.608425609852</v>
+        <v>1468.172975743604</v>
       </c>
       <c r="AD2" t="n">
-        <v>1125193.917876058</v>
+        <v>1186248.246324706</v>
       </c>
       <c r="AE2" t="n">
-        <v>1539539.958490261</v>
+        <v>1623077.184200572</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592362519921972e-06</v>
+        <v>2.739629790717604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.04444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1392608.425609852</v>
+        <v>1468172.975743604</v>
       </c>
     </row>
     <row r="3">
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.7653941671135</v>
+        <v>498.4682201271779</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.3348074833317</v>
+        <v>682.02620964384</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.5582925235451</v>
+        <v>616.9345854252285</v>
       </c>
       <c r="AD3" t="n">
-        <v>457765.3941671135</v>
+        <v>498468.2201271778</v>
       </c>
       <c r="AE3" t="n">
-        <v>626334.8074833316</v>
+        <v>682026.2096438401</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66321023689777e-06</v>
+        <v>4.582003163643127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.799999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>566558.2925235451</v>
+        <v>616934.5854252286</v>
       </c>
     </row>
     <row r="4">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.7568997755162</v>
+        <v>388.374384881009</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.8163322244998</v>
+        <v>531.3909672628107</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.4050892894093</v>
+        <v>480.675759159154</v>
       </c>
       <c r="AD4" t="n">
-        <v>347756.8997755162</v>
+        <v>388374.3848810089</v>
       </c>
       <c r="AE4" t="n">
-        <v>475816.3322244998</v>
+        <v>531390.9672628107</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.068218004714873e-06</v>
+        <v>5.278811416978645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.769444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>430405.0892894093</v>
+        <v>480675.759159154</v>
       </c>
     </row>
     <row r="5">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.3706653284577</v>
+        <v>354.9831256530776</v>
       </c>
       <c r="AB5" t="n">
-        <v>443.8182545261863</v>
+        <v>485.7035732687654</v>
       </c>
       <c r="AC5" t="n">
-        <v>401.4608632170388</v>
+        <v>439.34870592524</v>
       </c>
       <c r="AD5" t="n">
-        <v>324370.6653284577</v>
+        <v>354983.1256530776</v>
       </c>
       <c r="AE5" t="n">
-        <v>443818.2545261863</v>
+        <v>485703.5732687654</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.170965544039228e-06</v>
+        <v>5.455586627481415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.55138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>401460.8632170387</v>
+        <v>439348.70592524</v>
       </c>
     </row>
     <row r="6">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>325.8428489765048</v>
+        <v>356.4553093011247</v>
       </c>
       <c r="AB6" t="n">
-        <v>445.832561141603</v>
+        <v>487.717879884182</v>
       </c>
       <c r="AC6" t="n">
-        <v>403.2829272361772</v>
+        <v>441.1707699443785</v>
       </c>
       <c r="AD6" t="n">
-        <v>325842.8489765048</v>
+        <v>356455.3093011247</v>
       </c>
       <c r="AE6" t="n">
-        <v>445832.561141603</v>
+        <v>487717.879884182</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.170666424565212e-06</v>
+        <v>5.455071998047638e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.55138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>403282.9272361771</v>
+        <v>441170.7699443785</v>
       </c>
     </row>
   </sheetData>
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.9675423464868</v>
+        <v>330.3521929321514</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.9558486049041</v>
+        <v>452.0024444799337</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.3074307731544</v>
+        <v>408.8639655681831</v>
       </c>
       <c r="AD2" t="n">
-        <v>295967.5423464868</v>
+        <v>330352.1929321514</v>
       </c>
       <c r="AE2" t="n">
-        <v>404955.8486049041</v>
+        <v>452002.4444799336</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.926609345187425e-06</v>
+        <v>5.866857792102446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.494444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>366307.4307731544</v>
+        <v>408863.9655681831</v>
       </c>
     </row>
   </sheetData>
@@ -5915,28 +5915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>692.3691974056211</v>
+        <v>741.3552047811752</v>
       </c>
       <c r="AB2" t="n">
-        <v>947.3300810635907</v>
+        <v>1014.354897464946</v>
       </c>
       <c r="AC2" t="n">
-        <v>856.9182277130004</v>
+        <v>917.5462897069308</v>
       </c>
       <c r="AD2" t="n">
-        <v>692369.1974056211</v>
+        <v>741355.2047811752</v>
       </c>
       <c r="AE2" t="n">
-        <v>947330.0810635907</v>
+        <v>1014354.897464946</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.066301635694099e-06</v>
+        <v>3.659573737282997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>856918.2277130004</v>
+        <v>917546.2897069308</v>
       </c>
     </row>
     <row r="3">
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.5579884985248</v>
+        <v>375.0008332400207</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.8076848062011</v>
+        <v>513.092683908152</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.6835829580498</v>
+        <v>464.123838286062</v>
       </c>
       <c r="AD3" t="n">
-        <v>345557.9884985248</v>
+        <v>375000.8332400207</v>
       </c>
       <c r="AE3" t="n">
-        <v>472807.6848062011</v>
+        <v>513092.683908152</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.055993103162903e-06</v>
+        <v>5.412390867075027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.066666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>427683.5829580498</v>
+        <v>464123.8382860621</v>
       </c>
     </row>
     <row r="4">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.0513739969655</v>
+        <v>343.2230401196537</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.0165037025715</v>
+        <v>469.6129054235773</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.3124724720274</v>
+        <v>424.7937088358027</v>
       </c>
       <c r="AD4" t="n">
-        <v>304051.3739969655</v>
+        <v>343223.0401196537</v>
       </c>
       <c r="AE4" t="n">
-        <v>416016.5037025715</v>
+        <v>469612.9054235774</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218635251626747e-06</v>
+        <v>5.700442197438335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.709722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>376312.4724720274</v>
+        <v>424793.7088358027</v>
       </c>
     </row>
     <row r="5">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>305.4886645195629</v>
+        <v>344.660330642251</v>
       </c>
       <c r="AB5" t="n">
-        <v>417.983068004372</v>
+        <v>471.5794697253778</v>
       </c>
       <c r="AC5" t="n">
-        <v>378.0913506369543</v>
+        <v>426.5725870007297</v>
       </c>
       <c r="AD5" t="n">
-        <v>305488.6645195629</v>
+        <v>344660.3306422511</v>
       </c>
       <c r="AE5" t="n">
-        <v>417983.068004372</v>
+        <v>471579.4697253778</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.218479762001065e-06</v>
+        <v>5.7001668137573e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.709722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>378091.3506369543</v>
+        <v>426572.5870007297</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>877.9523551527396</v>
+        <v>937.9655053156936</v>
       </c>
       <c r="AB2" t="n">
-        <v>1201.253144844284</v>
+        <v>1283.365784490565</v>
       </c>
       <c r="AC2" t="n">
-        <v>1086.607230669723</v>
+        <v>1160.883155233976</v>
       </c>
       <c r="AD2" t="n">
-        <v>877952.3551527397</v>
+        <v>937965.5053156936</v>
       </c>
       <c r="AE2" t="n">
-        <v>1201253.144844284</v>
+        <v>1283365.784490565</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.817521841141672e-06</v>
+        <v>3.169599386390004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.64166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1086607.230669723</v>
+        <v>1160883.155233976</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.4992541495933</v>
+        <v>440.3374287243037</v>
       </c>
       <c r="AB3" t="n">
-        <v>547.9807483075676</v>
+        <v>602.489096296908</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.6822347849034</v>
+        <v>544.9883825450878</v>
       </c>
       <c r="AD3" t="n">
-        <v>400499.2541495933</v>
+        <v>440337.4287243037</v>
       </c>
       <c r="AE3" t="n">
-        <v>547980.7483075677</v>
+        <v>602489.096296908</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.850294729750171e-06</v>
+        <v>4.970665123216311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.423611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>495682.2347849034</v>
+        <v>544988.3825450878</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.5677699917977</v>
+        <v>354.4911959125287</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.4055006533483</v>
+        <v>485.0304932953378</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.3282037489061</v>
+        <v>438.7398637598028</v>
       </c>
       <c r="AD4" t="n">
-        <v>314567.7699917977</v>
+        <v>354491.1959125287</v>
       </c>
       <c r="AE4" t="n">
-        <v>430405.5006533483</v>
+        <v>485030.4932953378</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.189880327730455e-06</v>
+        <v>5.562872753749698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.633333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>389328.2037489061</v>
+        <v>438739.8637598028</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>314.4281094907878</v>
+        <v>354.3515354115187</v>
       </c>
       <c r="AB5" t="n">
-        <v>430.2144109944801</v>
+        <v>484.8394036364697</v>
       </c>
       <c r="AC5" t="n">
-        <v>389.1553514188843</v>
+        <v>438.567011429781</v>
       </c>
       <c r="AD5" t="n">
-        <v>314428.1094907878</v>
+        <v>354351.5354115188</v>
       </c>
       <c r="AE5" t="n">
-        <v>430214.4109944801</v>
+        <v>484839.4036364697</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.199021259035442e-06</v>
+        <v>5.578813739766748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.613888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>389155.3514188843</v>
+        <v>438567.011429781</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1436.846365015009</v>
+        <v>1519.460426751233</v>
       </c>
       <c r="AB2" t="n">
-        <v>1965.956585801376</v>
+        <v>2078.992789744052</v>
       </c>
       <c r="AC2" t="n">
-        <v>1778.32844848989</v>
+        <v>1880.576635775586</v>
       </c>
       <c r="AD2" t="n">
-        <v>1436846.365015009</v>
+        <v>1519460.426751233</v>
       </c>
       <c r="AE2" t="n">
-        <v>1965956.585801376</v>
+        <v>2078992.789744052</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.38668746779307e-06</v>
+        <v>2.357276790624377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.72777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1778328.44848989</v>
+        <v>1880576.635775586</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.9149705267263</v>
+        <v>569.1794204761031</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.316552639444</v>
+        <v>778.7763935192315</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.3796746331835</v>
+        <v>704.4510675412886</v>
       </c>
       <c r="AD3" t="n">
-        <v>527914.9705267263</v>
+        <v>569179.4204761031</v>
       </c>
       <c r="AE3" t="n">
-        <v>722316.552639444</v>
+        <v>778776.3935192316</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.497802049621749e-06</v>
+        <v>4.246097939082256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.176388888888887</v>
       </c>
       <c r="AH3" t="n">
-        <v>653379.6746331835</v>
+        <v>704451.0675412886</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.8606871627812</v>
+        <v>431.8730526428803</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.4752769015105</v>
+        <v>590.9077635203865</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.1295662639154</v>
+        <v>534.5123559142551</v>
       </c>
       <c r="AD4" t="n">
-        <v>400860.6871627812</v>
+        <v>431873.0526428803</v>
       </c>
       <c r="AE4" t="n">
-        <v>548475.2769015104</v>
+        <v>590907.7635203865</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.914102391225374e-06</v>
+        <v>4.953780928929298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.008333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>496129.5662639154</v>
+        <v>534512.355914255</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.7118411418184</v>
+        <v>369.8094579679381</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.4404839620503</v>
+        <v>505.9896152335756</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.2103746155159</v>
+        <v>457.6986765165677</v>
       </c>
       <c r="AD5" t="n">
-        <v>338711.8411418184</v>
+        <v>369809.4579679381</v>
       </c>
       <c r="AE5" t="n">
-        <v>463440.4839620503</v>
+        <v>505989.6152335756</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.127472859493427e-06</v>
+        <v>5.316496583563017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.530555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>419210.3746155159</v>
+        <v>457698.6765165677</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>335.6836574766195</v>
+        <v>366.6106821021469</v>
       </c>
       <c r="AB6" t="n">
-        <v>459.2971894772905</v>
+        <v>501.6129089739689</v>
       </c>
       <c r="AC6" t="n">
-        <v>415.4625103412311</v>
+        <v>453.739676959632</v>
       </c>
       <c r="AD6" t="n">
-        <v>335683.6574766195</v>
+        <v>366610.682102147</v>
       </c>
       <c r="AE6" t="n">
-        <v>459297.1894772906</v>
+        <v>501612.9089739689</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.143207277208577e-06</v>
+        <v>5.343244050858544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.497222222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>415462.5103412311</v>
+        <v>453739.676959632</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.1505349462952</v>
+        <v>590.020674551473</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.7942799070765</v>
+        <v>807.292316796391</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.9984749475552</v>
+        <v>730.2454711232256</v>
       </c>
       <c r="AD2" t="n">
-        <v>542150.5349462952</v>
+        <v>590020.674551473</v>
       </c>
       <c r="AE2" t="n">
-        <v>741794.2799070765</v>
+        <v>807292.316796391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.346204617272739e-06</v>
+        <v>4.230762130668397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>670998.4749475552</v>
+        <v>730245.4711232255</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.8068375003526</v>
+        <v>334.1540820903969</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.7359651446258</v>
+        <v>457.2043569537572</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.1085326817167</v>
+        <v>413.5694148164351</v>
       </c>
       <c r="AD3" t="n">
-        <v>295806.8375003526</v>
+        <v>334154.0820903969</v>
       </c>
       <c r="AE3" t="n">
-        <v>404735.9651446257</v>
+        <v>457204.3569537572</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.21656571444518e-06</v>
+        <v>5.800229151070268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.869444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>366108.5326817167</v>
+        <v>413569.4148164351</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.0835471136423</v>
+        <v>334.4307917036866</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.1145714450954</v>
+        <v>457.5829632542267</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.4510053282467</v>
+        <v>413.911887462965</v>
       </c>
       <c r="AD4" t="n">
-        <v>296083.5471136423</v>
+        <v>334430.7917036866</v>
       </c>
       <c r="AE4" t="n">
-        <v>405114.5714450954</v>
+        <v>457582.9632542267</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.223724597532872e-06</v>
+        <v>5.813138311355058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>366451.0053282467</v>
+        <v>413911.887462965</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.0181263469643</v>
+        <v>398.9397569988487</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.3291715804676</v>
+        <v>545.8469755057604</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.0556506436855</v>
+        <v>493.7521062645315</v>
       </c>
       <c r="AD2" t="n">
-        <v>362018.1263469643</v>
+        <v>398939.7569988488</v>
       </c>
       <c r="AE2" t="n">
-        <v>495329.1715804675</v>
+        <v>545846.9755057604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864386885733781e-06</v>
+        <v>5.344030348312704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.034722222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>448055.6506436855</v>
+        <v>493752.1062645315</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.7250835024236</v>
+        <v>319.4803345094033</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.1511292503818</v>
+        <v>437.1270881533869</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.056705686853</v>
+        <v>395.4082923717484</v>
       </c>
       <c r="AD3" t="n">
-        <v>291725.0835024235</v>
+        <v>319480.3345094033</v>
       </c>
       <c r="AE3" t="n">
-        <v>399151.1292503818</v>
+        <v>437127.0881533869</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.203440143946759e-06</v>
+        <v>5.976595352226376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.184722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>361056.705686853</v>
+        <v>395408.2923717484</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.2820563501123</v>
+        <v>322.1493469360831</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.7037393711792</v>
+        <v>440.7789487040881</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.3200842452441</v>
+        <v>398.7116244769091</v>
       </c>
       <c r="AD2" t="n">
-        <v>286282.0563501123</v>
+        <v>322149.3469360831</v>
       </c>
       <c r="AE2" t="n">
-        <v>391703.7393711791</v>
+        <v>440778.9487040881</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.118215729458409e-06</v>
+        <v>5.996444482437532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.63611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>354320.084245244</v>
+        <v>398711.6244769091</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.0477870394487</v>
+        <v>323.9150776254195</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.1196899988695</v>
+        <v>443.1948993317785</v>
       </c>
       <c r="AC3" t="n">
-        <v>356.5054599358357</v>
+        <v>400.8970001675007</v>
       </c>
       <c r="AD3" t="n">
-        <v>288047.7870394487</v>
+        <v>323915.0776254195</v>
       </c>
       <c r="AE3" t="n">
-        <v>394119.6899988695</v>
+        <v>443194.8993317785</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.120444250870337e-06</v>
+        <v>6.000730011754283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.630555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>356505.4599358357</v>
+        <v>400897.0001675007</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.9436768353405</v>
+        <v>354.7834183852614</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.1833447467502</v>
+        <v>485.4303249744764</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.3181272832182</v>
+        <v>439.1015360646517</v>
       </c>
       <c r="AD2" t="n">
-        <v>312943.6768353404</v>
+        <v>354783.4183852614</v>
       </c>
       <c r="AE2" t="n">
-        <v>428183.3447467501</v>
+        <v>485430.3249744764</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.712579641030775e-06</v>
+        <v>5.594964926732469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.420833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>387318.1272832182</v>
+        <v>439101.5360646517</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.3166140393441</v>
+        <v>836.867833398832</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.241325286243</v>
+        <v>1145.039489659409</v>
       </c>
       <c r="AC2" t="n">
-        <v>974.4309251186191</v>
+        <v>1035.758527839332</v>
       </c>
       <c r="AD2" t="n">
-        <v>787316.6140393441</v>
+        <v>836867.833398832</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077241.325286243</v>
+        <v>1145039.489659409</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.935065785854061e-06</v>
+        <v>3.399834251704446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>974430.9251186191</v>
+        <v>1035758.527839332</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.9624972720802</v>
+        <v>402.6932646911934</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.3037427117796</v>
+        <v>550.9826903234987</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.6010697231679</v>
+        <v>498.3976756680859</v>
       </c>
       <c r="AD3" t="n">
-        <v>372962.4972720802</v>
+        <v>402693.2646911934</v>
       </c>
       <c r="AE3" t="n">
-        <v>510303.7427117797</v>
+        <v>550982.6903234987</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.948144120305646e-06</v>
+        <v>5.179772921648949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.248611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>461601.0697231679</v>
+        <v>498397.6756680859</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.7190754788693</v>
+        <v>348.2746385050472</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.4030587945682</v>
+        <v>476.5247251952648</v>
       </c>
       <c r="AC4" t="n">
-        <v>382.0895037096303</v>
+        <v>431.0458742292803</v>
       </c>
       <c r="AD4" t="n">
-        <v>308719.0754788693</v>
+        <v>348274.6385050472</v>
       </c>
       <c r="AE4" t="n">
-        <v>422403.0587945682</v>
+        <v>476524.7251952648</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.209107190662554e-06</v>
+        <v>5.638274741853366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.659722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>382089.5037096303</v>
+        <v>431045.8742292803</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>309.9432254089139</v>
+        <v>349.4987884350918</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.0779947345385</v>
+        <v>478.1996611352352</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.6045861142773</v>
+        <v>432.5609566339272</v>
       </c>
       <c r="AD5" t="n">
-        <v>309943.2254089139</v>
+        <v>349498.7884350918</v>
       </c>
       <c r="AE5" t="n">
-        <v>424077.9947345385</v>
+        <v>478199.6611352352</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.208645581457914e-06</v>
+        <v>5.637463712690269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.659722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>383604.5861142772</v>
+        <v>432560.9566339272</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1263.218934745172</v>
+        <v>1335.02428215208</v>
       </c>
       <c r="AB2" t="n">
-        <v>1728.39187580457</v>
+        <v>1826.639119955056</v>
       </c>
       <c r="AC2" t="n">
-        <v>1563.436580991014</v>
+        <v>1652.307246050651</v>
       </c>
       <c r="AD2" t="n">
-        <v>1263218.934745172</v>
+        <v>1335024.28215208</v>
       </c>
       <c r="AE2" t="n">
-        <v>1728391.87580457</v>
+        <v>1826639.119955056</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.488223858839907e-06</v>
+        <v>2.544696947384338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.83888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1563436.580991014</v>
+        <v>1652307.246050651</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.4144543661408</v>
+        <v>536.5333065190754</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.1654714380884</v>
+        <v>734.108540158326</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.7784510061301</v>
+        <v>664.0462514134217</v>
       </c>
       <c r="AD3" t="n">
-        <v>485414.4543661408</v>
+        <v>536533.3065190754</v>
       </c>
       <c r="AE3" t="n">
-        <v>664165.4714380883</v>
+        <v>734108.540158326</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.58426358829538e-06</v>
+        <v>4.418802739460161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.969444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>600778.4510061301</v>
+        <v>664046.2514134217</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>369.813609823887</v>
+        <v>410.7598960589776</v>
       </c>
       <c r="AB4" t="n">
-        <v>505.9952959860519</v>
+        <v>562.0198112355606</v>
       </c>
       <c r="AC4" t="n">
-        <v>457.7038151060005</v>
+        <v>508.3814292509971</v>
       </c>
       <c r="AD4" t="n">
-        <v>369813.6098238869</v>
+        <v>410759.8960589776</v>
       </c>
       <c r="AE4" t="n">
-        <v>505995.2959860518</v>
+        <v>562019.8112355606</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.985344144055263e-06</v>
+        <v>5.104605792431629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.898611111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>457703.8151060005</v>
+        <v>508381.4292509971</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.3830969439954</v>
+        <v>360.2421581158138</v>
       </c>
       <c r="AB5" t="n">
-        <v>450.676484595441</v>
+        <v>492.8992134964186</v>
       </c>
       <c r="AC5" t="n">
-        <v>407.6645534340701</v>
+        <v>445.8576043487105</v>
       </c>
       <c r="AD5" t="n">
-        <v>329383.0969439954</v>
+        <v>360242.1581158137</v>
       </c>
       <c r="AE5" t="n">
-        <v>450676.484595441</v>
+        <v>492899.2134964186</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.15941755346824e-06</v>
+        <v>5.402251923370078e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.518055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>407664.5534340701</v>
+        <v>445857.6043487105</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>329.9506756894058</v>
+        <v>360.8097368612241</v>
       </c>
       <c r="AB6" t="n">
-        <v>451.4530708747185</v>
+        <v>493.675799775696</v>
       </c>
       <c r="AC6" t="n">
-        <v>408.367023408799</v>
+        <v>446.5600743234395</v>
       </c>
       <c r="AD6" t="n">
-        <v>329950.6756894058</v>
+        <v>360809.7368612241</v>
       </c>
       <c r="AE6" t="n">
-        <v>451453.0708747185</v>
+        <v>493675.799775696</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.160603743651634e-06</v>
+        <v>5.404280176391805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.515277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>408367.023408799</v>
+        <v>446560.0743234395</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.693052945804</v>
+        <v>400.3500315456954</v>
       </c>
       <c r="AB2" t="n">
-        <v>481.2019506429098</v>
+        <v>547.7765753576779</v>
       </c>
       <c r="AC2" t="n">
-        <v>435.2767118447292</v>
+        <v>495.4975478147924</v>
       </c>
       <c r="AD2" t="n">
-        <v>351693.052945804</v>
+        <v>400350.0315456954</v>
       </c>
       <c r="AE2" t="n">
-        <v>481201.9506429098</v>
+        <v>547776.5753576779</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.322476736210305e-06</v>
+        <v>4.97813735633025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.39305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>435276.7118447292</v>
+        <v>495497.5478147924</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.9790864605206</v>
+        <v>452.4068110148176</v>
       </c>
       <c r="AB2" t="n">
-        <v>567.7926936804954</v>
+        <v>619.0029576103564</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.6033558976787</v>
+        <v>559.9261841121306</v>
       </c>
       <c r="AD2" t="n">
-        <v>414979.0864605206</v>
+        <v>452406.8110148176</v>
       </c>
       <c r="AE2" t="n">
-        <v>567792.6936804954</v>
+        <v>619002.9576103564</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.674359918309161e-06</v>
+        <v>4.927327724070945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.480555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>513603.3558976788</v>
+        <v>559926.1841121307</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.5124701516791</v>
+        <v>323.6472915854683</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.3331987515998</v>
+        <v>442.828502658031</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.744205747955</v>
+        <v>400.5655718780546</v>
       </c>
       <c r="AD3" t="n">
-        <v>295512.4701516791</v>
+        <v>323647.2915854683</v>
       </c>
       <c r="AE3" t="n">
-        <v>404333.1987515998</v>
+        <v>442828.5026580309</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.218801267008113e-06</v>
+        <v>5.930424178369811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.045833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>365744.205747955</v>
+        <v>400565.5718780546</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.6584379390515</v>
+        <v>668.7703416753225</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.5298151371385</v>
+        <v>915.0410855453595</v>
       </c>
       <c r="AC2" t="n">
-        <v>755.78802225391</v>
+        <v>827.710848609139</v>
       </c>
       <c r="AD2" t="n">
-        <v>610658.4379390515</v>
+        <v>668770.3416753225</v>
       </c>
       <c r="AE2" t="n">
-        <v>835529.8151371385</v>
+        <v>915041.0855453594</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.197815448489607e-06</v>
+        <v>3.926236905934232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.936111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>755788.02225391</v>
+        <v>827710.848609139</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.2428248721664</v>
+        <v>350.0125409812043</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.8561640544426</v>
+        <v>478.902600033989</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.2130494499659</v>
+        <v>433.1968080307649</v>
       </c>
       <c r="AD3" t="n">
-        <v>311242.8248721664</v>
+        <v>350012.5409812043</v>
       </c>
       <c r="AE3" t="n">
-        <v>425856.1640544425</v>
+        <v>478902.600033989</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.157188069326833e-06</v>
+        <v>5.640086079695637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>385213.0494499659</v>
+        <v>433196.8080307649</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.1540964419008</v>
+        <v>337.9238125509387</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.3158324990944</v>
+        <v>462.3622684786409</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.2513039237591</v>
+        <v>418.235062504558</v>
       </c>
       <c r="AD4" t="n">
-        <v>299154.0964419008</v>
+        <v>337923.8125509387</v>
       </c>
       <c r="AE4" t="n">
-        <v>409315.8324990944</v>
+        <v>462362.2684786409</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.227781039952188e-06</v>
+        <v>5.766195269964216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.765277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>370251.3039237591</v>
+        <v>418235.062504558</v>
       </c>
     </row>
   </sheetData>
